--- a/a.xlsx
+++ b/a.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20408"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lgpfr\Desktop\GU\Programação\Python\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\20221214010004\Desktop\Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3073486F-BD0E-4821-8233-5308CD12F5A0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9075" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="71">
   <si>
     <t>Sumário1</t>
   </si>
@@ -189,12 +190,60 @@
   </si>
   <si>
     <t>valor50</t>
+  </si>
+  <si>
+    <t>NovoSum1</t>
+  </si>
+  <si>
+    <t>NovoSum2</t>
+  </si>
+  <si>
+    <t>NovoSum3</t>
+  </si>
+  <si>
+    <t>NovoSum4</t>
+  </si>
+  <si>
+    <t>NovoSum5</t>
+  </si>
+  <si>
+    <t>PermitidosSum1</t>
+  </si>
+  <si>
+    <t>valor10a</t>
+  </si>
+  <si>
+    <t>valor11a</t>
+  </si>
+  <si>
+    <t>valor12b</t>
+  </si>
+  <si>
+    <t>valor13c</t>
+  </si>
+  <si>
+    <t>valor14a</t>
+  </si>
+  <si>
+    <t>valor15c</t>
+  </si>
+  <si>
+    <t>valor16d</t>
+  </si>
+  <si>
+    <t>valor17e</t>
+  </si>
+  <si>
+    <t>valor18f</t>
+  </si>
+  <si>
+    <t>num primeiro</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -271,7 +320,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -286,6 +335,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -567,19 +622,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C4:H15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="C4:Q42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="3" width="8.85546875" style="1"/>
+    <col min="4" max="4" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="9" width="8.85546875" style="1"/>
+    <col min="10" max="10" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="8.85546875" style="1"/>
+    <col min="20" max="20" width="9" style="1" customWidth="1"/>
+    <col min="21" max="21" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C4" s="3"/>
       <c r="D4" s="4" t="s">
         <v>0</v>
@@ -597,7 +664,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C5" s="3"/>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
@@ -605,7 +672,7 @@
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
     </row>
-    <row r="6" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C6" s="3"/>
       <c r="D6" s="2" t="s">
         <v>5</v>
@@ -623,7 +690,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C7" s="3"/>
       <c r="D7" s="2" t="s">
         <v>6</v>
@@ -641,7 +708,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C8" s="3"/>
       <c r="D8" s="2" t="s">
         <v>7</v>
@@ -659,7 +726,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C9" s="3"/>
       <c r="D9" s="2" t="s">
         <v>8</v>
@@ -677,7 +744,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C10" s="3"/>
       <c r="D10" s="2" t="s">
         <v>9</v>
@@ -695,7 +762,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="3:8" x14ac:dyDescent="0.25">
       <c r="D11" s="2" t="s">
         <v>10</v>
       </c>
@@ -712,7 +779,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="3:8" x14ac:dyDescent="0.25">
       <c r="D12" s="2" t="s">
         <v>11</v>
       </c>
@@ -729,7 +796,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="3:8" x14ac:dyDescent="0.25">
       <c r="D13" s="2" t="s">
         <v>12</v>
       </c>
@@ -746,7 +813,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="14" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="3:8" x14ac:dyDescent="0.25">
       <c r="D14" s="2" t="s">
         <v>13</v>
       </c>
@@ -763,7 +830,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="15" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="3:8" x14ac:dyDescent="0.25">
       <c r="D15" s="2" t="s">
         <v>14</v>
       </c>
@@ -778,6 +845,158 @@
       </c>
       <c r="H15" s="2" t="s">
         <v>54</v>
+      </c>
+    </row>
+    <row r="18" spans="10:17" x14ac:dyDescent="0.25">
+      <c r="K18" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="19" spans="10:17" x14ac:dyDescent="0.25">
+      <c r="J19" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="M19" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="N19" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="20" spans="10:17" x14ac:dyDescent="0.25">
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="6"/>
+      <c r="M20" s="6"/>
+      <c r="N20" s="6"/>
+    </row>
+    <row r="21" spans="10:17" x14ac:dyDescent="0.25">
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="6"/>
+      <c r="M21" s="6"/>
+      <c r="N21" s="6"/>
+    </row>
+    <row r="22" spans="10:17" x14ac:dyDescent="0.25">
+      <c r="J22" s="6"/>
+      <c r="K22" s="6"/>
+      <c r="L22" s="6"/>
+      <c r="M22" s="6"/>
+      <c r="N22" s="6"/>
+    </row>
+    <row r="23" spans="10:17" x14ac:dyDescent="0.25">
+      <c r="J23" s="6"/>
+      <c r="K23" s="6"/>
+      <c r="L23" s="6"/>
+      <c r="M23" s="6"/>
+      <c r="N23" s="6"/>
+    </row>
+    <row r="24" spans="10:17" x14ac:dyDescent="0.25">
+      <c r="J24" s="6"/>
+      <c r="K24" s="6"/>
+      <c r="L24" s="6"/>
+      <c r="M24" s="6"/>
+      <c r="N24" s="6"/>
+    </row>
+    <row r="25" spans="10:17" x14ac:dyDescent="0.25">
+      <c r="J25" s="6"/>
+      <c r="K25" s="6"/>
+      <c r="L25" s="6"/>
+      <c r="M25" s="6"/>
+      <c r="N25" s="6"/>
+    </row>
+    <row r="26" spans="10:17" x14ac:dyDescent="0.25">
+      <c r="J26" s="6"/>
+      <c r="K26" s="6"/>
+      <c r="L26" s="6"/>
+      <c r="M26" s="6"/>
+      <c r="N26" s="6"/>
+    </row>
+    <row r="27" spans="10:17" x14ac:dyDescent="0.25">
+      <c r="J27" s="6"/>
+      <c r="K27" s="6"/>
+      <c r="L27" s="6"/>
+      <c r="M27" s="6"/>
+      <c r="N27" s="6"/>
+    </row>
+    <row r="28" spans="10:17" x14ac:dyDescent="0.25">
+      <c r="J28" s="6"/>
+      <c r="K28" s="6"/>
+      <c r="L28" s="6"/>
+      <c r="M28" s="6"/>
+      <c r="N28" s="6"/>
+    </row>
+    <row r="29" spans="10:17" x14ac:dyDescent="0.25">
+      <c r="J29" s="6"/>
+      <c r="K29" s="6"/>
+      <c r="L29" s="6"/>
+      <c r="M29" s="6"/>
+      <c r="N29" s="6"/>
+    </row>
+    <row r="31" spans="10:17" x14ac:dyDescent="0.25">
+      <c r="Q31" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="32" spans="10:17" x14ac:dyDescent="0.25">
+      <c r="Q32" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="33" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q33" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="34" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q34" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="35" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q35" s="6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="36" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q36" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="37" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q37" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="38" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q38" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="39" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q39" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="40" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q40" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="41" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q41" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="42" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q42" s="6" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
